--- a/medicine/Handicap/Syndrome_de_Ballinger-Wallace/Syndrome_de_Ballinger-Wallace.xlsx
+++ b/medicine/Handicap/Syndrome_de_Ballinger-Wallace/Syndrome_de_Ballinger-Wallace.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Ballinger-Wallace, en anglais : Diabetes mellitus and deafness (DAD) ou maternally inherited diabetes and deafness (MIDD, « diabète et surdité hérités de la mère »), est une maladie mitochondriale liée au gène Leu-UUR.
@@ -512,7 +524,9 @@
           <t>Dénominations alternatives</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En français :
 diabète mitochondrial, Mito ;
@@ -551,9 +565,11 @@
           <t>Cause</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diabète-surdité de transmission maternelle, ou syndrome de Ballinger-Wallace, est une maladie mitochondriale liée au gène Leu-UUR[1],[2] ou, plus exceptionnellement encore, à une mutation « m.3243A&gt;G »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diabète-surdité de transmission maternelle, ou syndrome de Ballinger-Wallace, est une maladie mitochondriale liée au gène Leu-UUR, ou, plus exceptionnellement encore, à une mutation « m.3243A&gt;G ».
 </t>
         </is>
       </c>
@@ -582,7 +598,9 @@
           <t>Incidence et prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Prévalence : 1 à 9 sur 1 000 000.
 </t>
@@ -613,7 +631,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène ARNt-Leucine (en), la mutation la plus fréquemment associée est la mutation A3243G dans l'ARNtLeu de l'ADN mitochondrial.
 </t>
@@ -644,10 +664,12 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Une continuité clinique a été établie avec le syndrome MELAS[4].
-Diagnostic différentiel</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une continuité clinique a été établie avec le syndrome MELAS.
+</t>
         </is>
       </c>
     </row>
@@ -676,6 +698,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -703,8 +727,13 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mode  de transmission
-Transmission mitochondriale</t>
+          <t>Mode  de transmission</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Transmission mitochondriale</t>
         </is>
       </c>
     </row>
